--- a/eVaSys.Server/Assets/Templates/EtatMensuelReception.xlsx
+++ b/eVaSys.Server/Assets/Templates/EtatMensuelReception.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Repos\Valorplast\eValorplastWebApp\Assets\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Repos\eVaSys\eVaSys.Server\Assets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B44BAA-9CF8-4778-A607-F63214DE468F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D21AA1D-DBFF-4513-9043-55D5847CA56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12648" yWindow="4200" windowWidth="23364" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6144" yWindow="6144" windowWidth="15540" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etat" sheetId="4" r:id="rId1"/>
     <sheet name="Répartition" sheetId="3" r:id="rId2"/>
     <sheet name="Produits" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -96,7 +96,7 @@
     <t xml:space="preserve">Paris le </t>
   </si>
   <si>
-    <t>L'état des réceptions des emballages plastique est établi sur la base des déclarations que vous avez faites à Valorplast. Il indique la répartition des tonnages entre les différents contrats que vous gérez. Cet état ne peut en aucun cas servir de justificatif auprès de CITEO ou d'Adelphe pour tout règlement.</t>
+    <t>L'état des réceptions des emballages plastique est établi sur la base des déclarations que vous avez faites à Valorplast. Il indique la répartition des tonnages entre les différents contrats que vous gérez. Cet état ne peut en aucun cas servir de justificatif auprès des éco-organismes pour tout règlement.</t>
   </si>
 </sst>
 </file>
@@ -337,13 +337,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -8002,11 +8002,11 @@
       <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="8" t="s">
         <v>16</v>
       </c>
@@ -8015,606 +8015,686 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
       <c r="E85" s="6"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
       <c r="E101" s="6"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
       <c r="E107" s="6"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
       <c r="E108" s="6"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
       <c r="E110" s="6"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
       <c r="E111" s="6"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
       <c r="E112" s="6"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
       <c r="E113" s="6"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
       <c r="E114" s="6"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
       <c r="E115" s="6"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
       <c r="E116" s="6"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
       <c r="E117" s="6"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
       <c r="E119" s="6"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
       <c r="E120" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
@@ -8625,91 +8705,11 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/eVaSys.Server/Assets/Templates/EtatMensuelReception.xlsx
+++ b/eVaSys.Server/Assets/Templates/EtatMensuelReception.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\Repos\eVaSys\eVaSys.Server\Assets\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\Repos\eVaSys\eVaSys.Server\Assets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D21AA1D-DBFF-4513-9043-55D5847CA56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459BAC1A-3008-4F1F-92EE-C863F3665801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6144" yWindow="6144" windowWidth="15540" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18804" yWindow="5748" windowWidth="25884" windowHeight="19248" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etat" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>RS</t>
   </si>
@@ -72,13 +72,7 @@
     <t>Poids chargé (kg)</t>
   </si>
   <si>
-    <t>Process</t>
-  </si>
-  <si>
     <t>Cet état vous sert de base pour établir la facture à Valorplast.</t>
-  </si>
-  <si>
-    <t>Composant</t>
   </si>
   <si>
     <t>Prix d'achat
@@ -151,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -242,19 +236,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -268,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -282,9 +291,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -313,7 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -337,24 +343,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,8 +451,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171555</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1878435</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -493,8 +506,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171555</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1878435</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -770,7 +783,7 @@
   </sheetPr>
   <dimension ref="A4:E2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -778,7 +791,7 @@
     <col min="2" max="2" width="12.69921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.8984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -833,7 +846,7 @@
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,13 +855,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>23</v>
+      <c r="A21" s="24" t="s">
+        <v>21</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -864,7 +877,7 @@
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7934,785 +7947,1681 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:F120"/>
+  <dimension ref="A4:E277"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="1"/>
+    <col min="3" max="3" width="27.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="4:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="5:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="E5" s="2" t="s">
+    <row r="5" spans="4:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="5:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
+    <row r="6" spans="4:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
-        <v>22</v>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="6"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="6"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="6"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="6"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="6"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="6"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="6"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="6"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="6"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="6"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="6"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="6"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="6"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="6"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="21"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="6"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="6"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="6"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="6"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="6"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="21"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="6"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="21"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="6"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="21"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="6"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="6"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="6"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="21"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="6"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="21"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="6"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="21"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="6"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="21"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="6"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="6"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="21"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="6"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="21"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="6"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="21"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="6"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="21"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="6"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="21"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="6"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="6"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="21"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="6"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="21"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="6"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="21"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="6"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="21"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="6"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="21"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="6"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="21"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="6"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="21"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="6"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="21"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="6"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="21"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="6"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="21"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="6"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="21"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="6"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="21"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="6"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="21"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="6"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="21"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="6"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="21"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="6"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="21"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
       <c r="E85" s="6"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="6"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
       <c r="E107" s="6"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
       <c r="E108" s="6"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="6"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
       <c r="E111" s="6"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="30"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
       <c r="E112" s="6"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
       <c r="E113" s="6"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
       <c r="E114" s="6"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="6"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="6"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
       <c r="E117" s="6"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="6"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="6"/>
     </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="34"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="34"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="34"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="34"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="34"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="34"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="34"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="34"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="34"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="34"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="34"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="34"/>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="34"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="34"/>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
+      <c r="D146" s="34"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="34"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="34"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="34"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="34"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="34"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="34"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="34"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="34"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="34"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="34"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="34"/>
+      <c r="C157" s="34"/>
+      <c r="D157" s="34"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="34"/>
+      <c r="C158" s="34"/>
+      <c r="D158" s="34"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="34"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="34"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="34"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="34"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="34"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="34"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="34"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="34"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="34"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="34"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="34"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="34"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="34"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="34"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="34"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="34"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="34"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="34"/>
+      <c r="C172" s="34"/>
+      <c r="D172" s="34"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="34"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="34"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="34"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="34"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="34"/>
+      <c r="C175" s="34"/>
+      <c r="D175" s="34"/>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="34"/>
+      <c r="C176" s="34"/>
+      <c r="D176" s="34"/>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="34"/>
+      <c r="C177" s="34"/>
+      <c r="D177" s="34"/>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="34"/>
+      <c r="C178" s="34"/>
+      <c r="D178" s="34"/>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="34"/>
+      <c r="C179" s="34"/>
+      <c r="D179" s="34"/>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="34"/>
+      <c r="C180" s="34"/>
+      <c r="D180" s="34"/>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="34"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34"/>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="34"/>
+      <c r="C182" s="34"/>
+      <c r="D182" s="34"/>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="34"/>
+      <c r="C183" s="34"/>
+      <c r="D183" s="34"/>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="34"/>
+      <c r="C185" s="34"/>
+      <c r="D185" s="34"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="34"/>
+      <c r="C186" s="34"/>
+      <c r="D186" s="34"/>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="34"/>
+      <c r="C187" s="34"/>
+      <c r="D187" s="34"/>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="34"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="34"/>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="34"/>
+      <c r="C189" s="34"/>
+      <c r="D189" s="34"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="34"/>
+      <c r="C190" s="34"/>
+      <c r="D190" s="34"/>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="34"/>
+      <c r="C191" s="34"/>
+      <c r="D191" s="34"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="34"/>
+      <c r="C192" s="34"/>
+      <c r="D192" s="34"/>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="34"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="34"/>
+      <c r="C194" s="34"/>
+      <c r="D194" s="34"/>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="34"/>
+      <c r="C195" s="34"/>
+      <c r="D195" s="34"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="34"/>
+      <c r="C196" s="34"/>
+      <c r="D196" s="34"/>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="34"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="34"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="34"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="34"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="34"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="34"/>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="34"/>
+      <c r="C200" s="34"/>
+      <c r="D200" s="34"/>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="34"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="34"/>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="34"/>
+      <c r="C202" s="34"/>
+      <c r="D202" s="34"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="34"/>
+      <c r="C203" s="34"/>
+      <c r="D203" s="34"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="34"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="34"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="34"/>
+      <c r="C205" s="34"/>
+      <c r="D205" s="34"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="34"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="34"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="34"/>
+      <c r="C207" s="34"/>
+      <c r="D207" s="34"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="34"/>
+      <c r="C208" s="34"/>
+      <c r="D208" s="34"/>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" s="34"/>
+      <c r="C209" s="34"/>
+      <c r="D209" s="34"/>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" s="34"/>
+      <c r="C210" s="34"/>
+      <c r="D210" s="34"/>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" s="34"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="34"/>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="34"/>
+      <c r="C212" s="34"/>
+      <c r="D212" s="34"/>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="34"/>
+      <c r="C213" s="34"/>
+      <c r="D213" s="34"/>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="34"/>
+      <c r="C214" s="34"/>
+      <c r="D214" s="34"/>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" s="34"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="34"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="34"/>
+      <c r="C216" s="34"/>
+      <c r="D216" s="34"/>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="34"/>
+      <c r="C217" s="34"/>
+      <c r="D217" s="34"/>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" s="34"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="34"/>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="34"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="34"/>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220" s="34"/>
+      <c r="C220" s="34"/>
+      <c r="D220" s="34"/>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" s="34"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="34"/>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" s="34"/>
+      <c r="C222" s="34"/>
+      <c r="D222" s="34"/>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="34"/>
+      <c r="C223" s="34"/>
+      <c r="D223" s="34"/>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224" s="34"/>
+      <c r="C224" s="34"/>
+      <c r="D224" s="34"/>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B225" s="34"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="34"/>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B226" s="34"/>
+      <c r="C226" s="34"/>
+      <c r="D226" s="34"/>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B227" s="34"/>
+      <c r="C227" s="34"/>
+      <c r="D227" s="34"/>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B228" s="34"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="34"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229" s="34"/>
+      <c r="C229" s="34"/>
+      <c r="D229" s="34"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230" s="34"/>
+      <c r="C230" s="34"/>
+      <c r="D230" s="34"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" s="34"/>
+      <c r="C231" s="34"/>
+      <c r="D231" s="34"/>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B232" s="34"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="34"/>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233" s="34"/>
+      <c r="C233" s="34"/>
+      <c r="D233" s="34"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="34"/>
+      <c r="C234" s="34"/>
+      <c r="D234" s="34"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235" s="34"/>
+      <c r="C235" s="34"/>
+      <c r="D235" s="34"/>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" s="35"/>
+      <c r="C236" s="35"/>
+      <c r="D236" s="35"/>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B237" s="35"/>
+      <c r="C237" s="35"/>
+      <c r="D237" s="35"/>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" s="35"/>
+      <c r="C238" s="35"/>
+      <c r="D238" s="35"/>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239" s="35"/>
+      <c r="C239" s="35"/>
+      <c r="D239" s="35"/>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="35"/>
+      <c r="C240" s="35"/>
+      <c r="D240" s="35"/>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241" s="35"/>
+      <c r="C241" s="35"/>
+      <c r="D241" s="35"/>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="35"/>
+      <c r="C242" s="35"/>
+      <c r="D242" s="35"/>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243" s="35"/>
+      <c r="C243" s="35"/>
+      <c r="D243" s="35"/>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="35"/>
+      <c r="C244" s="35"/>
+      <c r="D244" s="35"/>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="35"/>
+      <c r="C245" s="35"/>
+      <c r="D245" s="35"/>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="35"/>
+      <c r="C246" s="35"/>
+      <c r="D246" s="35"/>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="35"/>
+      <c r="C247" s="35"/>
+      <c r="D247" s="35"/>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" s="35"/>
+      <c r="C248" s="35"/>
+      <c r="D248" s="35"/>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249" s="35"/>
+      <c r="C249" s="35"/>
+      <c r="D249" s="35"/>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="35"/>
+      <c r="C250" s="35"/>
+      <c r="D250" s="35"/>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251" s="35"/>
+      <c r="C251" s="35"/>
+      <c r="D251" s="35"/>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="35"/>
+      <c r="C252" s="35"/>
+      <c r="D252" s="35"/>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253" s="35"/>
+      <c r="C253" s="35"/>
+      <c r="D253" s="35"/>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" s="35"/>
+      <c r="C254" s="35"/>
+      <c r="D254" s="35"/>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255" s="35"/>
+      <c r="C255" s="35"/>
+      <c r="D255" s="35"/>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="35"/>
+      <c r="C256" s="35"/>
+      <c r="D256" s="35"/>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" s="35"/>
+      <c r="C257" s="35"/>
+      <c r="D257" s="35"/>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="35"/>
+      <c r="C258" s="35"/>
+      <c r="D258" s="35"/>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" s="35"/>
+      <c r="C259" s="35"/>
+      <c r="D259" s="35"/>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="35"/>
+      <c r="C260" s="35"/>
+      <c r="D260" s="35"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" s="35"/>
+      <c r="C261" s="35"/>
+      <c r="D261" s="35"/>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="35"/>
+      <c r="C262" s="35"/>
+      <c r="D262" s="35"/>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" s="35"/>
+      <c r="C263" s="35"/>
+      <c r="D263" s="35"/>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="35"/>
+      <c r="C264" s="35"/>
+      <c r="D264" s="35"/>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" s="35"/>
+      <c r="C265" s="35"/>
+      <c r="D265" s="35"/>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266" s="35"/>
+      <c r="C266" s="35"/>
+      <c r="D266" s="35"/>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" s="35"/>
+      <c r="C267" s="35"/>
+      <c r="D267" s="35"/>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268" s="35"/>
+      <c r="C268" s="35"/>
+      <c r="D268" s="35"/>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269" s="35"/>
+      <c r="C269" s="35"/>
+      <c r="D269" s="35"/>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270" s="35"/>
+      <c r="C270" s="35"/>
+      <c r="D270" s="35"/>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" s="35"/>
+      <c r="C271" s="35"/>
+      <c r="D271" s="35"/>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" s="35"/>
+      <c r="C272" s="35"/>
+      <c r="D272" s="35"/>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273" s="35"/>
+      <c r="C273" s="35"/>
+      <c r="D273" s="35"/>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274" s="35"/>
+      <c r="C274" s="35"/>
+      <c r="D274" s="35"/>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276" s="35"/>
+      <c r="C276" s="35"/>
+      <c r="D276" s="35"/>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277" s="35"/>
+      <c r="C277" s="35"/>
+      <c r="D277" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
+  <mergeCells count="215">
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B235:D235"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="B223:D223"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;7Valorplast S. A. au capital de 436 760 € - RCS Paris B 390 756 591 - TVA FR 50 390 756 591
 21, rue d’Artois - 75008 Paris - Tél. : +33 (0) 1 88 46 10 00 - Email : valorplast@valorplast.com</oddFooter>
@@ -8726,148 +9635,1557 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:G26"/>
+  <dimension ref="A4:F497"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" style="9" customWidth="1"/>
-    <col min="5" max="7" width="10.59765625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="35.59765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" style="8" customWidth="1"/>
+    <col min="5" max="6" width="14.8984375" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="4:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="4:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="9" t="s">
-        <v>22</v>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>17</v>
+    <row r="21" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" s="5" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="30"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="30"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="30"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="30"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="30"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="30"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="30"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="30"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="30"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="30"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="30"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="30"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="30"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="30"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="30"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="30"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="30"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="30"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="30"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="30"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="30"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="30"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="30"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="30"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="30"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="30"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="30"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="30"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="30"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="30"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="30"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="30"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="30"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="30"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="30"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="30"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="30"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="30"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="30"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="30"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="30"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="30"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="30"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="30"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="30"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="30"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="30"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="30"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="30"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="30"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="30"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="30"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="30"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="30"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="30"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="30"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="30"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="30"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="30"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="30"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="30"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="30"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="30"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="30"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="30"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="30"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="30"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="30"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="30"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="30"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="30"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="30"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="30"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="30"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="30"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="30"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="30"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="30"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="30"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="30"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="30"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="30"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="30"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="30"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="30"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="30"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="30"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="30"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="30"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="30"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="30"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="30"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="30"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="30"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="30"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="30"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="30"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="30"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="30"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="30"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="30"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="30"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="30"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="30"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="30"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="30"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="30"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="30"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="30"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="30"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="30"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="30"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="30"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="30"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="30"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="30"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="30"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="30"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="30"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="30"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="30"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="30"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="30"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="30"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="30"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="30"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="30"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="30"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="30"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="30"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="30"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="30"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="30"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="30"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="30"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="30"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="30"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="30"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="30"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="30"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="30"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="30"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="30"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="30"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="30"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="30"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" s="30"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" s="30"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="30"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" s="30"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="30"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" s="30"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" s="30"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" s="30"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="30"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="30"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" s="30"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="30"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="30"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" s="30"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" s="30"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="30"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="30"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="30"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" s="30"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" s="30"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" s="30"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" s="30"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" s="30"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" s="30"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" s="30"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" s="30"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" s="30"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" s="30"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" s="30"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" s="30"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" s="30"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" s="30"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" s="30"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" s="30"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" s="30"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" s="30"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" s="30"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" s="30"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" s="30"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" s="30"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" s="30"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255" s="30"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256" s="30"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" s="30"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258" s="30"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D259" s="30"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D260" s="30"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D261" s="30"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D262" s="30"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D263" s="30"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D264" s="30"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D265" s="30"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D266" s="30"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D267" s="30"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D268" s="30"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D269" s="30"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D270" s="30"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D271" s="30"/>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D272" s="30"/>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D273" s="30"/>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D274" s="30"/>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D275" s="30"/>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D276" s="30"/>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D277" s="30"/>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D278" s="30"/>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D279" s="30"/>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D280" s="30"/>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D281" s="30"/>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D282" s="30"/>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D283" s="30"/>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D284" s="30"/>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D285" s="30"/>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D286" s="30"/>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D287" s="30"/>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D288" s="30"/>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289" s="30"/>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D290" s="30"/>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D291" s="30"/>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D292" s="30"/>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D293" s="30"/>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D294" s="30"/>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D295" s="30"/>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D296" s="30"/>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D297" s="30"/>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D298" s="30"/>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D299" s="30"/>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D300" s="30"/>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D301" s="30"/>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D302" s="30"/>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D303" s="30"/>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D304" s="30"/>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D305" s="30"/>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D306" s="30"/>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D307" s="30"/>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D308" s="30"/>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D309" s="30"/>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D310" s="30"/>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D311" s="30"/>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D312" s="30"/>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D313" s="30"/>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D314" s="30"/>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D315" s="30"/>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D316" s="30"/>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D317" s="30"/>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D318" s="30"/>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D319" s="30"/>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D320" s="30"/>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D321" s="30"/>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322" s="30"/>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D323" s="30"/>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D324" s="30"/>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D325" s="30"/>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D326" s="30"/>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D327" s="30"/>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D328" s="30"/>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D329" s="30"/>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D330" s="30"/>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D331" s="30"/>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D332" s="30"/>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D333" s="30"/>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D334" s="30"/>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D335" s="30"/>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D336" s="30"/>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D337" s="30"/>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D338" s="30"/>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D339" s="30"/>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D340" s="30"/>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D341" s="30"/>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D342" s="30"/>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D343" s="30"/>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D344" s="30"/>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D345" s="30"/>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D346" s="30"/>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D347" s="30"/>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D348" s="30"/>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D349" s="30"/>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D350" s="30"/>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D351" s="30"/>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D352" s="30"/>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D353" s="30"/>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D354" s="30"/>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D355" s="30"/>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D356" s="30"/>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D357" s="30"/>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D358" s="30"/>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D359" s="30"/>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D360" s="30"/>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D361" s="30"/>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D362" s="30"/>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D363" s="30"/>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D364" s="30"/>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D365" s="30"/>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D366" s="30"/>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D367" s="30"/>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D368" s="30"/>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D369" s="30"/>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D370" s="30"/>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D371" s="30"/>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D372" s="30"/>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D373" s="30"/>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D374" s="30"/>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D375" s="30"/>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D376" s="30"/>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D377" s="30"/>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D378" s="30"/>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D379" s="30"/>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D380" s="30"/>
+    </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D381" s="30"/>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D382" s="30"/>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D383" s="30"/>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D384" s="30"/>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D385" s="30"/>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D386" s="30"/>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D387" s="30"/>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D388" s="30"/>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D389" s="30"/>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D390" s="30"/>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D391" s="30"/>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D392" s="30"/>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D393" s="30"/>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D394" s="30"/>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D395" s="30"/>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D396" s="30"/>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D397" s="30"/>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D398" s="30"/>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D399" s="30"/>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D400" s="30"/>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D401" s="30"/>
+    </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D402" s="30"/>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D403" s="30"/>
+    </row>
+    <row r="404" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D404" s="30"/>
+    </row>
+    <row r="405" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D405" s="30"/>
+    </row>
+    <row r="406" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D406" s="30"/>
+    </row>
+    <row r="407" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D407" s="30"/>
+    </row>
+    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D408" s="30"/>
+    </row>
+    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D409" s="30"/>
+    </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D410" s="30"/>
+    </row>
+    <row r="411" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D411" s="30"/>
+    </row>
+    <row r="412" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D412" s="30"/>
+    </row>
+    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D413" s="30"/>
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D414" s="30"/>
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D415" s="30"/>
+    </row>
+    <row r="416" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D416" s="30"/>
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D417" s="30"/>
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D418" s="30"/>
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D419" s="30"/>
+    </row>
+    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D420" s="30"/>
+    </row>
+    <row r="421" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D421" s="30"/>
+    </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D422" s="30"/>
+    </row>
+    <row r="423" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D423" s="30"/>
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D424" s="30"/>
+    </row>
+    <row r="425" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D425" s="30"/>
+    </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D426" s="30"/>
+    </row>
+    <row r="427" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D427" s="30"/>
+    </row>
+    <row r="428" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D428" s="30"/>
+    </row>
+    <row r="429" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D429" s="30"/>
+    </row>
+    <row r="430" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D430" s="30"/>
+    </row>
+    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D431" s="30"/>
+    </row>
+    <row r="432" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D432" s="30"/>
+    </row>
+    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D433" s="30"/>
+    </row>
+    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D434" s="30"/>
+    </row>
+    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D435" s="30"/>
+    </row>
+    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D436" s="30"/>
+    </row>
+    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D437" s="30"/>
+    </row>
+    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D438" s="30"/>
+    </row>
+    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D439" s="30"/>
+    </row>
+    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D440" s="30"/>
+    </row>
+    <row r="441" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D441" s="30"/>
+    </row>
+    <row r="442" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D442" s="30"/>
+    </row>
+    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D443" s="30"/>
+    </row>
+    <row r="444" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D444" s="30"/>
+    </row>
+    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D445" s="30"/>
+    </row>
+    <row r="446" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D446" s="30"/>
+    </row>
+    <row r="447" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D447" s="30"/>
+    </row>
+    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D448" s="30"/>
+    </row>
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D449" s="30"/>
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D450" s="30"/>
+    </row>
+    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D451" s="30"/>
+    </row>
+    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D452" s="30"/>
+    </row>
+    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D453" s="30"/>
+    </row>
+    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D454" s="30"/>
+    </row>
+    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D455" s="30"/>
+    </row>
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D456" s="30"/>
+    </row>
+    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D457" s="30"/>
+    </row>
+    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D458" s="30"/>
+    </row>
+    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D459" s="30"/>
+    </row>
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D460" s="30"/>
+    </row>
+    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D461" s="30"/>
+    </row>
+    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D462" s="30"/>
+    </row>
+    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D463" s="30"/>
+    </row>
+    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D464" s="30"/>
+    </row>
+    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D465" s="30"/>
+    </row>
+    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D466" s="30"/>
+    </row>
+    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D467" s="30"/>
+    </row>
+    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D468" s="30"/>
+    </row>
+    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D469" s="30"/>
+    </row>
+    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D470" s="30"/>
+    </row>
+    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D471" s="30"/>
+    </row>
+    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D472" s="30"/>
+    </row>
+    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D473" s="30"/>
+    </row>
+    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D474" s="30"/>
+    </row>
+    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D475" s="30"/>
+    </row>
+    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D476" s="30"/>
+    </row>
+    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D477" s="30"/>
+    </row>
+    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D478" s="30"/>
+    </row>
+    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D479" s="30"/>
+    </row>
+    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D480" s="30"/>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D481" s="30"/>
+    </row>
+    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D482" s="30"/>
+    </row>
+    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D483" s="30"/>
+    </row>
+    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D484" s="30"/>
+    </row>
+    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D485" s="30"/>
+    </row>
+    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D486" s="30"/>
+    </row>
+    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D487" s="30"/>
+    </row>
+    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D488" s="30"/>
+    </row>
+    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D489" s="30"/>
+    </row>
+    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D490" s="30"/>
+    </row>
+    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D491" s="30"/>
+    </row>
+    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D492" s="30"/>
+    </row>
+    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D493" s="30"/>
+    </row>
+    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D494" s="30"/>
+    </row>
+    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D495" s="30"/>
+    </row>
+    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D496" s="30"/>
+    </row>
+    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D497" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;7Valorplast S. A. au capital de 436 760 € - RCS Paris B 390 756 591 - TVA FR 50 390 756 591
 21, rue d’Artois - 75008 Paris - Tél. : +33 (0) 1 88 46 10 00 - Email : valorplast@valorplast.com</oddFooter>

--- a/eVaSys.Server/Assets/Templates/EtatMensuelReception.xlsx
+++ b/eVaSys.Server/Assets/Templates/EtatMensuelReception.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\Repos\eVaSys\eVaSys.Server\Assets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459BAC1A-3008-4F1F-92EE-C863F3665801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3912D16C-4FAA-4F75-A1F8-26AAC601FD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18804" yWindow="5748" windowWidth="25884" windowHeight="19248" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12288" yWindow="4116" windowWidth="25884" windowHeight="19248" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etat" sheetId="4" r:id="rId1"/>
@@ -277,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,6 +334,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -343,17 +349,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -364,10 +361,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,13 +854,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7947,9 +7946,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:E277"/>
+  <dimension ref="A4:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8014,1526 +8013,1238 @@
       <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="21"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="21"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="21"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="21"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="21"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="21"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="21"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
       <c r="E48" s="21"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="21"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="21"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="21"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="21"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="21"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="21"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="21"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="21"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="21"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="21"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="21"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="21"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
       <c r="E61" s="21"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
       <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="21"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="21"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="21"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="21"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="21"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="21"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="21"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
       <c r="E72" s="21"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
       <c r="E73" s="21"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
       <c r="E74" s="21"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
       <c r="E75" s="21"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
       <c r="E76" s="21"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
       <c r="E78" s="21"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
       <c r="E79" s="21"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="21"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
       <c r="E82" s="21"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="21"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
       <c r="E84" s="21"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="6"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
       <c r="E101" s="6"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
       <c r="E107" s="6"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
       <c r="E108" s="6"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
       <c r="E109" s="6"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
       <c r="E110" s="6"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
       <c r="E111" s="6"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
       <c r="E112" s="6"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
       <c r="E113" s="6"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
       <c r="E114" s="6"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
       <c r="E115" s="6"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
       <c r="E116" s="6"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
       <c r="E117" s="6"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
       <c r="E118" s="6"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
       <c r="E119" s="6"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
       <c r="E120" s="6"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="34"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="34"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="34"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="34"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="34"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="34"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="34"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="34"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="34"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="34"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="34"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="34"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="34"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="34"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="34"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="34"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="34"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="34"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="34"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="34"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="34"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="34"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="34"/>
-      <c r="C157" s="34"/>
-      <c r="D157" s="34"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="34"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="34"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="34"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="34"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="34"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="34"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="34"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="34"/>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34"/>
+      <c r="B162" s="29"/>
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="34"/>
-      <c r="C163" s="34"/>
-      <c r="D163" s="34"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="34"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="34"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="34"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="34"/>
-      <c r="C166" s="34"/>
-      <c r="D166" s="34"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="34"/>
-      <c r="C167" s="34"/>
-      <c r="D167" s="34"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="34"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="34"/>
+      <c r="B168" s="29"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="34"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="34"/>
-      <c r="C170" s="34"/>
-      <c r="D170" s="34"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="34"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="34"/>
-      <c r="C172" s="34"/>
-      <c r="D172" s="34"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="34"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="34"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="34"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="29"/>
+      <c r="D174" s="29"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="34"/>
-      <c r="C175" s="34"/>
-      <c r="D175" s="34"/>
+      <c r="B175" s="29"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="34"/>
-      <c r="C176" s="34"/>
-      <c r="D176" s="34"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="29"/>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="34"/>
-      <c r="C177" s="34"/>
-      <c r="D177" s="34"/>
+      <c r="B177" s="29"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="34"/>
-      <c r="C178" s="34"/>
-      <c r="D178" s="34"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="34"/>
-      <c r="C179" s="34"/>
-      <c r="D179" s="34"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="34"/>
-      <c r="C180" s="34"/>
-      <c r="D180" s="34"/>
+      <c r="B180" s="29"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="34"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="34"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="34"/>
-      <c r="C183" s="34"/>
-      <c r="D183" s="34"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="29"/>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="34"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="34"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="29"/>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="34"/>
-      <c r="C185" s="34"/>
-      <c r="D185" s="34"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="29"/>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" s="34"/>
-      <c r="C186" s="34"/>
-      <c r="D186" s="34"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="29"/>
+      <c r="D186" s="29"/>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="34"/>
-      <c r="C187" s="34"/>
-      <c r="D187" s="34"/>
+      <c r="B187" s="29"/>
+      <c r="C187" s="29"/>
+      <c r="D187" s="29"/>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="34"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="34"/>
+      <c r="B188" s="29"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" s="34"/>
-      <c r="C189" s="34"/>
-      <c r="D189" s="34"/>
+      <c r="B189" s="29"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="29"/>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="34"/>
-      <c r="C190" s="34"/>
-      <c r="D190" s="34"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="34"/>
-      <c r="C191" s="34"/>
-      <c r="D191" s="34"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="34"/>
-      <c r="C192" s="34"/>
-      <c r="D192" s="34"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="29"/>
+      <c r="D192" s="29"/>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="34"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
+      <c r="B193" s="29"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="34"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34"/>
+      <c r="B194" s="29"/>
+      <c r="C194" s="29"/>
+      <c r="D194" s="29"/>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="34"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="34"/>
+      <c r="B195" s="29"/>
+      <c r="C195" s="29"/>
+      <c r="D195" s="29"/>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="34"/>
-      <c r="C196" s="34"/>
-      <c r="D196" s="34"/>
+      <c r="B196" s="29"/>
+      <c r="C196" s="29"/>
+      <c r="D196" s="29"/>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="34"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="34"/>
+      <c r="B197" s="29"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="29"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="34"/>
-      <c r="C198" s="34"/>
-      <c r="D198" s="34"/>
+      <c r="B198" s="29"/>
+      <c r="C198" s="29"/>
+      <c r="D198" s="29"/>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="34"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="34"/>
+      <c r="B199" s="29"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="34"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="34"/>
+      <c r="B200" s="29"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="29"/>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="34"/>
-      <c r="C201" s="34"/>
-      <c r="D201" s="34"/>
+      <c r="B201" s="29"/>
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B202" s="34"/>
-      <c r="C202" s="34"/>
-      <c r="D202" s="34"/>
+      <c r="B202" s="29"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="34"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
+      <c r="B203" s="29"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="34"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="34"/>
+      <c r="B204" s="29"/>
+      <c r="C204" s="29"/>
+      <c r="D204" s="29"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="34"/>
-      <c r="C205" s="34"/>
-      <c r="D205" s="34"/>
+      <c r="B205" s="29"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="29"/>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B206" s="34"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="34"/>
+      <c r="B206" s="29"/>
+      <c r="C206" s="29"/>
+      <c r="D206" s="29"/>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="34"/>
-      <c r="C207" s="34"/>
-      <c r="D207" s="34"/>
+      <c r="B207" s="29"/>
+      <c r="C207" s="29"/>
+      <c r="D207" s="29"/>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B208" s="34"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="34"/>
+      <c r="B208" s="29"/>
+      <c r="C208" s="29"/>
+      <c r="D208" s="29"/>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B209" s="34"/>
-      <c r="C209" s="34"/>
-      <c r="D209" s="34"/>
+      <c r="B209" s="29"/>
+      <c r="C209" s="29"/>
+      <c r="D209" s="29"/>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B210" s="34"/>
-      <c r="C210" s="34"/>
-      <c r="D210" s="34"/>
+      <c r="B210" s="29"/>
+      <c r="C210" s="29"/>
+      <c r="D210" s="29"/>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B211" s="34"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="34"/>
+      <c r="B211" s="29"/>
+      <c r="C211" s="29"/>
+      <c r="D211" s="29"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B212" s="34"/>
-      <c r="C212" s="34"/>
-      <c r="D212" s="34"/>
+      <c r="B212" s="29"/>
+      <c r="C212" s="29"/>
+      <c r="D212" s="29"/>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B213" s="34"/>
-      <c r="C213" s="34"/>
-      <c r="D213" s="34"/>
+      <c r="B213" s="29"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="29"/>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B214" s="34"/>
-      <c r="C214" s="34"/>
-      <c r="D214" s="34"/>
+      <c r="B214" s="29"/>
+      <c r="C214" s="29"/>
+      <c r="D214" s="29"/>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B215" s="34"/>
-      <c r="C215" s="34"/>
-      <c r="D215" s="34"/>
+      <c r="B215" s="29"/>
+      <c r="C215" s="29"/>
+      <c r="D215" s="29"/>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B216" s="34"/>
-      <c r="C216" s="34"/>
-      <c r="D216" s="34"/>
+      <c r="B216" s="29"/>
+      <c r="C216" s="29"/>
+      <c r="D216" s="29"/>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B217" s="34"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="34"/>
+      <c r="B217" s="29"/>
+      <c r="C217" s="29"/>
+      <c r="D217" s="29"/>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B218" s="34"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="34"/>
+      <c r="B218" s="29"/>
+      <c r="C218" s="29"/>
+      <c r="D218" s="29"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B219" s="34"/>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
+      <c r="B219" s="29"/>
+      <c r="C219" s="29"/>
+      <c r="D219" s="29"/>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B220" s="34"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34"/>
+      <c r="B220" s="29"/>
+      <c r="C220" s="29"/>
+      <c r="D220" s="29"/>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B221" s="34"/>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34"/>
+      <c r="B221" s="29"/>
+      <c r="C221" s="29"/>
+      <c r="D221" s="29"/>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B222" s="34"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
+      <c r="B222" s="29"/>
+      <c r="C222" s="29"/>
+      <c r="D222" s="29"/>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B223" s="34"/>
-      <c r="C223" s="34"/>
-      <c r="D223" s="34"/>
+      <c r="B223" s="29"/>
+      <c r="C223" s="29"/>
+      <c r="D223" s="29"/>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B224" s="34"/>
-      <c r="C224" s="34"/>
-      <c r="D224" s="34"/>
+      <c r="B224" s="29"/>
+      <c r="C224" s="29"/>
+      <c r="D224" s="29"/>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B225" s="34"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="34"/>
+      <c r="B225" s="29"/>
+      <c r="C225" s="29"/>
+      <c r="D225" s="29"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B226" s="34"/>
-      <c r="C226" s="34"/>
-      <c r="D226" s="34"/>
+      <c r="B226" s="29"/>
+      <c r="C226" s="29"/>
+      <c r="D226" s="29"/>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B227" s="34"/>
-      <c r="C227" s="34"/>
-      <c r="D227" s="34"/>
+      <c r="B227" s="29"/>
+      <c r="C227" s="29"/>
+      <c r="D227" s="29"/>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B228" s="34"/>
-      <c r="C228" s="34"/>
-      <c r="D228" s="34"/>
+      <c r="B228" s="29"/>
+      <c r="C228" s="29"/>
+      <c r="D228" s="29"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B229" s="34"/>
-      <c r="C229" s="34"/>
-      <c r="D229" s="34"/>
+      <c r="B229" s="29"/>
+      <c r="C229" s="29"/>
+      <c r="D229" s="29"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B230" s="34"/>
-      <c r="C230" s="34"/>
-      <c r="D230" s="34"/>
+      <c r="B230" s="29"/>
+      <c r="C230" s="29"/>
+      <c r="D230" s="29"/>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B231" s="34"/>
-      <c r="C231" s="34"/>
-      <c r="D231" s="34"/>
+      <c r="B231" s="29"/>
+      <c r="C231" s="29"/>
+      <c r="D231" s="29"/>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B232" s="34"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="34"/>
+      <c r="B232" s="29"/>
+      <c r="C232" s="29"/>
+      <c r="D232" s="29"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B233" s="34"/>
-      <c r="C233" s="34"/>
-      <c r="D233" s="34"/>
+      <c r="B233" s="29"/>
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B234" s="34"/>
-      <c r="C234" s="34"/>
-      <c r="D234" s="34"/>
+      <c r="B234" s="29"/>
+      <c r="C234" s="29"/>
+      <c r="D234" s="29"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B235" s="34"/>
-      <c r="C235" s="34"/>
-      <c r="D235" s="34"/>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B236" s="35"/>
-      <c r="C236" s="35"/>
-      <c r="D236" s="35"/>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B237" s="35"/>
-      <c r="C237" s="35"/>
-      <c r="D237" s="35"/>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B238" s="35"/>
-      <c r="C238" s="35"/>
-      <c r="D238" s="35"/>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B239" s="35"/>
-      <c r="C239" s="35"/>
-      <c r="D239" s="35"/>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B240" s="35"/>
-      <c r="C240" s="35"/>
-      <c r="D240" s="35"/>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B241" s="35"/>
-      <c r="C241" s="35"/>
-      <c r="D241" s="35"/>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B242" s="35"/>
-      <c r="C242" s="35"/>
-      <c r="D242" s="35"/>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B243" s="35"/>
-      <c r="C243" s="35"/>
-      <c r="D243" s="35"/>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B244" s="35"/>
-      <c r="C244" s="35"/>
-      <c r="D244" s="35"/>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B245" s="35"/>
-      <c r="C245" s="35"/>
-      <c r="D245" s="35"/>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B246" s="35"/>
-      <c r="C246" s="35"/>
-      <c r="D246" s="35"/>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B247" s="35"/>
-      <c r="C247" s="35"/>
-      <c r="D247" s="35"/>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B248" s="35"/>
-      <c r="C248" s="35"/>
-      <c r="D248" s="35"/>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B249" s="35"/>
-      <c r="C249" s="35"/>
-      <c r="D249" s="35"/>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="35"/>
-      <c r="C250" s="35"/>
-      <c r="D250" s="35"/>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B251" s="35"/>
-      <c r="C251" s="35"/>
-      <c r="D251" s="35"/>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B252" s="35"/>
-      <c r="C252" s="35"/>
-      <c r="D252" s="35"/>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B253" s="35"/>
-      <c r="C253" s="35"/>
-      <c r="D253" s="35"/>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B254" s="35"/>
-      <c r="C254" s="35"/>
-      <c r="D254" s="35"/>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B255" s="35"/>
-      <c r="C255" s="35"/>
-      <c r="D255" s="35"/>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B256" s="35"/>
-      <c r="C256" s="35"/>
-      <c r="D256" s="35"/>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B257" s="35"/>
-      <c r="C257" s="35"/>
-      <c r="D257" s="35"/>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="35"/>
-      <c r="C258" s="35"/>
-      <c r="D258" s="35"/>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B259" s="35"/>
-      <c r="C259" s="35"/>
-      <c r="D259" s="35"/>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="35"/>
-      <c r="C260" s="35"/>
-      <c r="D260" s="35"/>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B261" s="35"/>
-      <c r="C261" s="35"/>
-      <c r="D261" s="35"/>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="35"/>
-      <c r="C262" s="35"/>
-      <c r="D262" s="35"/>
-    </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B263" s="35"/>
-      <c r="C263" s="35"/>
-      <c r="D263" s="35"/>
-    </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B264" s="35"/>
-      <c r="C264" s="35"/>
-      <c r="D264" s="35"/>
-    </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B265" s="35"/>
-      <c r="C265" s="35"/>
-      <c r="D265" s="35"/>
-    </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B266" s="35"/>
-      <c r="C266" s="35"/>
-      <c r="D266" s="35"/>
-    </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B267" s="35"/>
-      <c r="C267" s="35"/>
-      <c r="D267" s="35"/>
-    </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B268" s="35"/>
-      <c r="C268" s="35"/>
-      <c r="D268" s="35"/>
-    </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B269" s="35"/>
-      <c r="C269" s="35"/>
-      <c r="D269" s="35"/>
-    </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B270" s="35"/>
-      <c r="C270" s="35"/>
-      <c r="D270" s="35"/>
-    </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B271" s="35"/>
-      <c r="C271" s="35"/>
-      <c r="D271" s="35"/>
-    </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B272" s="35"/>
-      <c r="C272" s="35"/>
-      <c r="D272" s="35"/>
-    </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B273" s="35"/>
-      <c r="C273" s="35"/>
-      <c r="D273" s="35"/>
-    </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B274" s="35"/>
-      <c r="C274" s="35"/>
-      <c r="D274" s="35"/>
-    </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-    </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B276" s="35"/>
-      <c r="C276" s="35"/>
-      <c r="D276" s="35"/>
-    </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B277" s="35"/>
-      <c r="C277" s="35"/>
-      <c r="D277" s="35"/>
+      <c r="B235" s="29"/>
+      <c r="C235" s="29"/>
+      <c r="D235" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B233:D233"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="B235:D235"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="B221:D221"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="B223:D223"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B189:D189"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
@@ -9550,27 +9261,29 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
@@ -9585,40 +9298,116 @@
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="B223:D223"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B235:D235"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="B230:D230"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9637,7 +9426,7 @@
   </sheetPr>
   <dimension ref="A4:F497"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9716,14 +9505,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -9749,1436 +9538,1436 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="29"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="29"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="29"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="30"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="30"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="30"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="30"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="30"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="30"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="30"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="30"/>
+      <c r="D34" s="25"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="30"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="30"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="30"/>
+      <c r="D37" s="25"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="30"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="30"/>
+      <c r="D39" s="25"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="30"/>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="30"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="30"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="30"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="30"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="30"/>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="30"/>
+      <c r="D46" s="25"/>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="30"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="30"/>
+      <c r="D48" s="25"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="30"/>
+      <c r="D49" s="25"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="30"/>
+      <c r="D50" s="25"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="30"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="30"/>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="30"/>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="30"/>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="30"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="30"/>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="30"/>
+      <c r="D57" s="25"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="30"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="30"/>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="30"/>
+      <c r="D60" s="25"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="30"/>
+      <c r="D61" s="25"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="30"/>
+      <c r="D62" s="25"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="30"/>
+      <c r="D63" s="25"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="30"/>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="30"/>
+      <c r="D65" s="25"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="30"/>
+      <c r="D66" s="25"/>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="30"/>
+      <c r="D67" s="25"/>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="30"/>
+      <c r="D68" s="25"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="30"/>
+      <c r="D69" s="25"/>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="30"/>
+      <c r="D70" s="25"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="30"/>
+      <c r="D71" s="25"/>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="30"/>
+      <c r="D72" s="25"/>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="30"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="30"/>
+      <c r="D74" s="25"/>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="30"/>
+      <c r="D75" s="25"/>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="30"/>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="30"/>
+      <c r="D77" s="25"/>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="30"/>
+      <c r="D78" s="25"/>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="30"/>
+      <c r="D79" s="25"/>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="30"/>
+      <c r="D80" s="25"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="30"/>
+      <c r="D81" s="25"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="30"/>
+      <c r="D82" s="25"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="30"/>
+      <c r="D83" s="25"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="30"/>
+      <c r="D84" s="25"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" s="30"/>
+      <c r="D85" s="25"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" s="30"/>
+      <c r="D86" s="25"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="30"/>
+      <c r="D87" s="25"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" s="30"/>
+      <c r="D88" s="25"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89" s="30"/>
+      <c r="D89" s="25"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="30"/>
+      <c r="D90" s="25"/>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D91" s="30"/>
+      <c r="D91" s="25"/>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D92" s="30"/>
+      <c r="D92" s="25"/>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="30"/>
+      <c r="D93" s="25"/>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94" s="30"/>
+      <c r="D94" s="25"/>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="30"/>
+      <c r="D95" s="25"/>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="30"/>
+      <c r="D96" s="25"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="30"/>
+      <c r="D97" s="25"/>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="30"/>
+      <c r="D98" s="25"/>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="30"/>
+      <c r="D99" s="25"/>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="30"/>
+      <c r="D100" s="25"/>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101" s="30"/>
+      <c r="D101" s="25"/>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D102" s="30"/>
+      <c r="D102" s="25"/>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D103" s="30"/>
+      <c r="D103" s="25"/>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D104" s="30"/>
+      <c r="D104" s="25"/>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D105" s="30"/>
+      <c r="D105" s="25"/>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D106" s="30"/>
+      <c r="D106" s="25"/>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D107" s="30"/>
+      <c r="D107" s="25"/>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D108" s="30"/>
+      <c r="D108" s="25"/>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D109" s="30"/>
+      <c r="D109" s="25"/>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D110" s="30"/>
+      <c r="D110" s="25"/>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D111" s="30"/>
+      <c r="D111" s="25"/>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D112" s="30"/>
+      <c r="D112" s="25"/>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="30"/>
+      <c r="D113" s="25"/>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="30"/>
+      <c r="D114" s="25"/>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="30"/>
+      <c r="D115" s="25"/>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D116" s="30"/>
+      <c r="D116" s="25"/>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="30"/>
+      <c r="D117" s="25"/>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D118" s="30"/>
+      <c r="D118" s="25"/>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="30"/>
+      <c r="D119" s="25"/>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="30"/>
+      <c r="D120" s="25"/>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="30"/>
+      <c r="D121" s="25"/>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D122" s="30"/>
+      <c r="D122" s="25"/>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="30"/>
+      <c r="D123" s="25"/>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D124" s="30"/>
+      <c r="D124" s="25"/>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D125" s="30"/>
+      <c r="D125" s="25"/>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="30"/>
+      <c r="D126" s="25"/>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D127" s="30"/>
+      <c r="D127" s="25"/>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D128" s="30"/>
+      <c r="D128" s="25"/>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D129" s="30"/>
+      <c r="D129" s="25"/>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D130" s="30"/>
+      <c r="D130" s="25"/>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D131" s="30"/>
+      <c r="D131" s="25"/>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D132" s="30"/>
+      <c r="D132" s="25"/>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D133" s="30"/>
+      <c r="D133" s="25"/>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D134" s="30"/>
+      <c r="D134" s="25"/>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D135" s="30"/>
+      <c r="D135" s="25"/>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D136" s="30"/>
+      <c r="D136" s="25"/>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D137" s="30"/>
+      <c r="D137" s="25"/>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D138" s="30"/>
+      <c r="D138" s="25"/>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D139" s="30"/>
+      <c r="D139" s="25"/>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D140" s="30"/>
+      <c r="D140" s="25"/>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D141" s="30"/>
+      <c r="D141" s="25"/>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D142" s="30"/>
+      <c r="D142" s="25"/>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="30"/>
+      <c r="D143" s="25"/>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="30"/>
+      <c r="D144" s="25"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="30"/>
+      <c r="D145" s="25"/>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" s="30"/>
+      <c r="D146" s="25"/>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="30"/>
+      <c r="D147" s="25"/>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148" s="30"/>
+      <c r="D148" s="25"/>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="30"/>
+      <c r="D149" s="25"/>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150" s="30"/>
+      <c r="D150" s="25"/>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="30"/>
+      <c r="D151" s="25"/>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152" s="30"/>
+      <c r="D152" s="25"/>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153" s="30"/>
+      <c r="D153" s="25"/>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="30"/>
+      <c r="D154" s="25"/>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="30"/>
+      <c r="D155" s="25"/>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="30"/>
+      <c r="D156" s="25"/>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="30"/>
+      <c r="D157" s="25"/>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="30"/>
+      <c r="D158" s="25"/>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="30"/>
+      <c r="D159" s="25"/>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="30"/>
+      <c r="D160" s="25"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="30"/>
+      <c r="D161" s="25"/>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="30"/>
+      <c r="D162" s="25"/>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" s="30"/>
+      <c r="D163" s="25"/>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D164" s="30"/>
+      <c r="D164" s="25"/>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165" s="30"/>
+      <c r="D165" s="25"/>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D166" s="30"/>
+      <c r="D166" s="25"/>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D167" s="30"/>
+      <c r="D167" s="25"/>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D168" s="30"/>
+      <c r="D168" s="25"/>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D169" s="30"/>
+      <c r="D169" s="25"/>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D170" s="30"/>
+      <c r="D170" s="25"/>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D171" s="30"/>
+      <c r="D171" s="25"/>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D172" s="30"/>
+      <c r="D172" s="25"/>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D173" s="30"/>
+      <c r="D173" s="25"/>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D174" s="30"/>
+      <c r="D174" s="25"/>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D175" s="30"/>
+      <c r="D175" s="25"/>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D176" s="30"/>
+      <c r="D176" s="25"/>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D177" s="30"/>
+      <c r="D177" s="25"/>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D178" s="30"/>
+      <c r="D178" s="25"/>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D179" s="30"/>
+      <c r="D179" s="25"/>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D180" s="30"/>
+      <c r="D180" s="25"/>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D181" s="30"/>
+      <c r="D181" s="25"/>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D182" s="30"/>
+      <c r="D182" s="25"/>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="30"/>
+      <c r="D183" s="25"/>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D184" s="30"/>
+      <c r="D184" s="25"/>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D185" s="30"/>
+      <c r="D185" s="25"/>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="30"/>
+      <c r="D186" s="25"/>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D187" s="30"/>
+      <c r="D187" s="25"/>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D188" s="30"/>
+      <c r="D188" s="25"/>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D189" s="30"/>
+      <c r="D189" s="25"/>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D190" s="30"/>
+      <c r="D190" s="25"/>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D191" s="30"/>
+      <c r="D191" s="25"/>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D192" s="30"/>
+      <c r="D192" s="25"/>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D193" s="30"/>
+      <c r="D193" s="25"/>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D194" s="30"/>
+      <c r="D194" s="25"/>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D195" s="30"/>
+      <c r="D195" s="25"/>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D196" s="30"/>
+      <c r="D196" s="25"/>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D197" s="30"/>
+      <c r="D197" s="25"/>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D198" s="30"/>
+      <c r="D198" s="25"/>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D199" s="30"/>
+      <c r="D199" s="25"/>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D200" s="30"/>
+      <c r="D200" s="25"/>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D201" s="30"/>
+      <c r="D201" s="25"/>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D202" s="30"/>
+      <c r="D202" s="25"/>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D203" s="30"/>
+      <c r="D203" s="25"/>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D204" s="30"/>
+      <c r="D204" s="25"/>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D205" s="30"/>
+      <c r="D205" s="25"/>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D206" s="30"/>
+      <c r="D206" s="25"/>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D207" s="30"/>
+      <c r="D207" s="25"/>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D208" s="30"/>
+      <c r="D208" s="25"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D209" s="30"/>
+      <c r="D209" s="25"/>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D210" s="30"/>
+      <c r="D210" s="25"/>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D211" s="30"/>
+      <c r="D211" s="25"/>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D212" s="30"/>
+      <c r="D212" s="25"/>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D213" s="30"/>
+      <c r="D213" s="25"/>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D214" s="30"/>
+      <c r="D214" s="25"/>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D215" s="30"/>
+      <c r="D215" s="25"/>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D216" s="30"/>
+      <c r="D216" s="25"/>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D217" s="30"/>
+      <c r="D217" s="25"/>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D218" s="30"/>
+      <c r="D218" s="25"/>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D219" s="30"/>
+      <c r="D219" s="25"/>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D220" s="30"/>
+      <c r="D220" s="25"/>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D221" s="30"/>
+      <c r="D221" s="25"/>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D222" s="30"/>
+      <c r="D222" s="25"/>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D223" s="30"/>
+      <c r="D223" s="25"/>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D224" s="30"/>
+      <c r="D224" s="25"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D225" s="30"/>
+      <c r="D225" s="25"/>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D226" s="30"/>
+      <c r="D226" s="25"/>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D227" s="30"/>
+      <c r="D227" s="25"/>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D228" s="30"/>
+      <c r="D228" s="25"/>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D229" s="30"/>
+      <c r="D229" s="25"/>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D230" s="30"/>
+      <c r="D230" s="25"/>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D231" s="30"/>
+      <c r="D231" s="25"/>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D232" s="30"/>
+      <c r="D232" s="25"/>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D233" s="30"/>
+      <c r="D233" s="25"/>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D234" s="30"/>
+      <c r="D234" s="25"/>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D235" s="30"/>
+      <c r="D235" s="25"/>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D236" s="30"/>
+      <c r="D236" s="25"/>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D237" s="30"/>
+      <c r="D237" s="25"/>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D238" s="30"/>
+      <c r="D238" s="25"/>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D239" s="30"/>
+      <c r="D239" s="25"/>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D240" s="30"/>
+      <c r="D240" s="25"/>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D241" s="30"/>
+      <c r="D241" s="25"/>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D242" s="30"/>
+      <c r="D242" s="25"/>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D243" s="30"/>
+      <c r="D243" s="25"/>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D244" s="30"/>
+      <c r="D244" s="25"/>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D245" s="30"/>
+      <c r="D245" s="25"/>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D246" s="30"/>
+      <c r="D246" s="25"/>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D247" s="30"/>
+      <c r="D247" s="25"/>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D248" s="30"/>
+      <c r="D248" s="25"/>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D249" s="30"/>
+      <c r="D249" s="25"/>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D250" s="30"/>
+      <c r="D250" s="25"/>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D251" s="30"/>
+      <c r="D251" s="25"/>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D252" s="30"/>
+      <c r="D252" s="25"/>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D253" s="30"/>
+      <c r="D253" s="25"/>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D254" s="30"/>
+      <c r="D254" s="25"/>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D255" s="30"/>
+      <c r="D255" s="25"/>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D256" s="30"/>
+      <c r="D256" s="25"/>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D257" s="30"/>
+      <c r="D257" s="25"/>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D258" s="30"/>
+      <c r="D258" s="25"/>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D259" s="30"/>
+      <c r="D259" s="25"/>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D260" s="30"/>
+      <c r="D260" s="25"/>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D261" s="30"/>
+      <c r="D261" s="25"/>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D262" s="30"/>
+      <c r="D262" s="25"/>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D263" s="30"/>
+      <c r="D263" s="25"/>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D264" s="30"/>
+      <c r="D264" s="25"/>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D265" s="30"/>
+      <c r="D265" s="25"/>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D266" s="30"/>
+      <c r="D266" s="25"/>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D267" s="30"/>
+      <c r="D267" s="25"/>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D268" s="30"/>
+      <c r="D268" s="25"/>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D269" s="30"/>
+      <c r="D269" s="25"/>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D270" s="30"/>
+      <c r="D270" s="25"/>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D271" s="30"/>
+      <c r="D271" s="25"/>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D272" s="30"/>
+      <c r="D272" s="25"/>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D273" s="30"/>
+      <c r="D273" s="25"/>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D274" s="30"/>
+      <c r="D274" s="25"/>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D275" s="30"/>
+      <c r="D275" s="25"/>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D276" s="30"/>
+      <c r="D276" s="25"/>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D277" s="30"/>
+      <c r="D277" s="25"/>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D278" s="30"/>
+      <c r="D278" s="25"/>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D279" s="30"/>
+      <c r="D279" s="25"/>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D280" s="30"/>
+      <c r="D280" s="25"/>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D281" s="30"/>
+      <c r="D281" s="25"/>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D282" s="30"/>
+      <c r="D282" s="25"/>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D283" s="30"/>
+      <c r="D283" s="25"/>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D284" s="30"/>
+      <c r="D284" s="25"/>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D285" s="30"/>
+      <c r="D285" s="25"/>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D286" s="30"/>
+      <c r="D286" s="25"/>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D287" s="30"/>
+      <c r="D287" s="25"/>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D288" s="30"/>
+      <c r="D288" s="25"/>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D289" s="30"/>
+      <c r="D289" s="25"/>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D290" s="30"/>
+      <c r="D290" s="25"/>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D291" s="30"/>
+      <c r="D291" s="25"/>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D292" s="30"/>
+      <c r="D292" s="25"/>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D293" s="30"/>
+      <c r="D293" s="25"/>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D294" s="30"/>
+      <c r="D294" s="25"/>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D295" s="30"/>
+      <c r="D295" s="25"/>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D296" s="30"/>
+      <c r="D296" s="25"/>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D297" s="30"/>
+      <c r="D297" s="25"/>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D298" s="30"/>
+      <c r="D298" s="25"/>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D299" s="30"/>
+      <c r="D299" s="25"/>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D300" s="30"/>
+      <c r="D300" s="25"/>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D301" s="30"/>
+      <c r="D301" s="25"/>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D302" s="30"/>
+      <c r="D302" s="25"/>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D303" s="30"/>
+      <c r="D303" s="25"/>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D304" s="30"/>
+      <c r="D304" s="25"/>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D305" s="30"/>
+      <c r="D305" s="25"/>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D306" s="30"/>
+      <c r="D306" s="25"/>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D307" s="30"/>
+      <c r="D307" s="25"/>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D308" s="30"/>
+      <c r="D308" s="25"/>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D309" s="30"/>
+      <c r="D309" s="25"/>
     </row>
     <row r="310" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D310" s="30"/>
+      <c r="D310" s="25"/>
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D311" s="30"/>
+      <c r="D311" s="25"/>
     </row>
     <row r="312" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D312" s="30"/>
+      <c r="D312" s="25"/>
     </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D313" s="30"/>
+      <c r="D313" s="25"/>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D314" s="30"/>
+      <c r="D314" s="25"/>
     </row>
     <row r="315" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D315" s="30"/>
+      <c r="D315" s="25"/>
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D316" s="30"/>
+      <c r="D316" s="25"/>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D317" s="30"/>
+      <c r="D317" s="25"/>
     </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D318" s="30"/>
+      <c r="D318" s="25"/>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D319" s="30"/>
+      <c r="D319" s="25"/>
     </row>
     <row r="320" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D320" s="30"/>
+      <c r="D320" s="25"/>
     </row>
     <row r="321" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D321" s="30"/>
+      <c r="D321" s="25"/>
     </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D322" s="30"/>
+      <c r="D322" s="25"/>
     </row>
     <row r="323" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D323" s="30"/>
+      <c r="D323" s="25"/>
     </row>
     <row r="324" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D324" s="30"/>
+      <c r="D324" s="25"/>
     </row>
     <row r="325" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D325" s="30"/>
+      <c r="D325" s="25"/>
     </row>
     <row r="326" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D326" s="30"/>
+      <c r="D326" s="25"/>
     </row>
     <row r="327" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D327" s="30"/>
+      <c r="D327" s="25"/>
     </row>
     <row r="328" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D328" s="30"/>
+      <c r="D328" s="25"/>
     </row>
     <row r="329" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D329" s="30"/>
+      <c r="D329" s="25"/>
     </row>
     <row r="330" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D330" s="30"/>
+      <c r="D330" s="25"/>
     </row>
     <row r="331" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D331" s="30"/>
+      <c r="D331" s="25"/>
     </row>
     <row r="332" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D332" s="30"/>
+      <c r="D332" s="25"/>
     </row>
     <row r="333" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D333" s="30"/>
+      <c r="D333" s="25"/>
     </row>
     <row r="334" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D334" s="30"/>
+      <c r="D334" s="25"/>
     </row>
     <row r="335" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D335" s="30"/>
+      <c r="D335" s="25"/>
     </row>
     <row r="336" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D336" s="30"/>
+      <c r="D336" s="25"/>
     </row>
     <row r="337" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D337" s="30"/>
+      <c r="D337" s="25"/>
     </row>
     <row r="338" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D338" s="30"/>
+      <c r="D338" s="25"/>
     </row>
     <row r="339" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D339" s="30"/>
+      <c r="D339" s="25"/>
     </row>
     <row r="340" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D340" s="30"/>
+      <c r="D340" s="25"/>
     </row>
     <row r="341" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D341" s="30"/>
+      <c r="D341" s="25"/>
     </row>
     <row r="342" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D342" s="30"/>
+      <c r="D342" s="25"/>
     </row>
     <row r="343" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D343" s="30"/>
+      <c r="D343" s="25"/>
     </row>
     <row r="344" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D344" s="30"/>
+      <c r="D344" s="25"/>
     </row>
     <row r="345" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D345" s="30"/>
+      <c r="D345" s="25"/>
     </row>
     <row r="346" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D346" s="30"/>
+      <c r="D346" s="25"/>
     </row>
     <row r="347" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D347" s="30"/>
+      <c r="D347" s="25"/>
     </row>
     <row r="348" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D348" s="30"/>
+      <c r="D348" s="25"/>
     </row>
     <row r="349" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D349" s="30"/>
+      <c r="D349" s="25"/>
     </row>
     <row r="350" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D350" s="30"/>
+      <c r="D350" s="25"/>
     </row>
     <row r="351" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D351" s="30"/>
+      <c r="D351" s="25"/>
     </row>
     <row r="352" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D352" s="30"/>
+      <c r="D352" s="25"/>
     </row>
     <row r="353" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D353" s="30"/>
+      <c r="D353" s="25"/>
     </row>
     <row r="354" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D354" s="30"/>
+      <c r="D354" s="25"/>
     </row>
     <row r="355" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D355" s="30"/>
+      <c r="D355" s="25"/>
     </row>
     <row r="356" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D356" s="30"/>
+      <c r="D356" s="25"/>
     </row>
     <row r="357" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D357" s="30"/>
+      <c r="D357" s="25"/>
     </row>
     <row r="358" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D358" s="30"/>
+      <c r="D358" s="25"/>
     </row>
     <row r="359" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D359" s="30"/>
+      <c r="D359" s="25"/>
     </row>
     <row r="360" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D360" s="30"/>
+      <c r="D360" s="25"/>
     </row>
     <row r="361" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D361" s="30"/>
+      <c r="D361" s="25"/>
     </row>
     <row r="362" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D362" s="30"/>
+      <c r="D362" s="25"/>
     </row>
     <row r="363" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D363" s="30"/>
+      <c r="D363" s="25"/>
     </row>
     <row r="364" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D364" s="30"/>
+      <c r="D364" s="25"/>
     </row>
     <row r="365" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D365" s="30"/>
+      <c r="D365" s="25"/>
     </row>
     <row r="366" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D366" s="30"/>
+      <c r="D366" s="25"/>
     </row>
     <row r="367" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D367" s="30"/>
+      <c r="D367" s="25"/>
     </row>
     <row r="368" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D368" s="30"/>
+      <c r="D368" s="25"/>
     </row>
     <row r="369" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D369" s="30"/>
+      <c r="D369" s="25"/>
     </row>
     <row r="370" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D370" s="30"/>
+      <c r="D370" s="25"/>
     </row>
     <row r="371" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D371" s="30"/>
+      <c r="D371" s="25"/>
     </row>
     <row r="372" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D372" s="30"/>
+      <c r="D372" s="25"/>
     </row>
     <row r="373" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D373" s="30"/>
+      <c r="D373" s="25"/>
     </row>
     <row r="374" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D374" s="30"/>
+      <c r="D374" s="25"/>
     </row>
     <row r="375" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D375" s="30"/>
+      <c r="D375" s="25"/>
     </row>
     <row r="376" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D376" s="30"/>
+      <c r="D376" s="25"/>
     </row>
     <row r="377" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D377" s="30"/>
+      <c r="D377" s="25"/>
     </row>
     <row r="378" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D378" s="30"/>
+      <c r="D378" s="25"/>
     </row>
     <row r="379" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D379" s="30"/>
+      <c r="D379" s="25"/>
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D380" s="30"/>
+      <c r="D380" s="25"/>
     </row>
     <row r="381" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D381" s="30"/>
+      <c r="D381" s="25"/>
     </row>
     <row r="382" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D382" s="30"/>
+      <c r="D382" s="25"/>
     </row>
     <row r="383" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D383" s="30"/>
+      <c r="D383" s="25"/>
     </row>
     <row r="384" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D384" s="30"/>
+      <c r="D384" s="25"/>
     </row>
     <row r="385" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D385" s="30"/>
+      <c r="D385" s="25"/>
     </row>
     <row r="386" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D386" s="30"/>
+      <c r="D386" s="25"/>
     </row>
     <row r="387" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D387" s="30"/>
+      <c r="D387" s="25"/>
     </row>
     <row r="388" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D388" s="30"/>
+      <c r="D388" s="25"/>
     </row>
     <row r="389" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D389" s="30"/>
+      <c r="D389" s="25"/>
     </row>
     <row r="390" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D390" s="30"/>
+      <c r="D390" s="25"/>
     </row>
     <row r="391" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D391" s="30"/>
+      <c r="D391" s="25"/>
     </row>
     <row r="392" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D392" s="30"/>
+      <c r="D392" s="25"/>
     </row>
     <row r="393" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D393" s="30"/>
+      <c r="D393" s="25"/>
     </row>
     <row r="394" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D394" s="30"/>
+      <c r="D394" s="25"/>
     </row>
     <row r="395" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D395" s="30"/>
+      <c r="D395" s="25"/>
     </row>
     <row r="396" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D396" s="30"/>
+      <c r="D396" s="25"/>
     </row>
     <row r="397" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D397" s="30"/>
+      <c r="D397" s="25"/>
     </row>
     <row r="398" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D398" s="30"/>
+      <c r="D398" s="25"/>
     </row>
     <row r="399" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D399" s="30"/>
+      <c r="D399" s="25"/>
     </row>
     <row r="400" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D400" s="30"/>
+      <c r="D400" s="25"/>
     </row>
     <row r="401" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D401" s="30"/>
+      <c r="D401" s="25"/>
     </row>
     <row r="402" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D402" s="30"/>
+      <c r="D402" s="25"/>
     </row>
     <row r="403" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D403" s="30"/>
+      <c r="D403" s="25"/>
     </row>
     <row r="404" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D404" s="30"/>
+      <c r="D404" s="25"/>
     </row>
     <row r="405" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D405" s="30"/>
+      <c r="D405" s="25"/>
     </row>
     <row r="406" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D406" s="30"/>
+      <c r="D406" s="25"/>
     </row>
     <row r="407" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D407" s="30"/>
+      <c r="D407" s="25"/>
     </row>
     <row r="408" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D408" s="30"/>
+      <c r="D408" s="25"/>
     </row>
     <row r="409" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D409" s="30"/>
+      <c r="D409" s="25"/>
     </row>
     <row r="410" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D410" s="30"/>
+      <c r="D410" s="25"/>
     </row>
     <row r="411" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D411" s="30"/>
+      <c r="D411" s="25"/>
     </row>
     <row r="412" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D412" s="30"/>
+      <c r="D412" s="25"/>
     </row>
     <row r="413" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D413" s="30"/>
+      <c r="D413" s="25"/>
     </row>
     <row r="414" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D414" s="30"/>
+      <c r="D414" s="25"/>
     </row>
     <row r="415" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D415" s="30"/>
+      <c r="D415" s="25"/>
     </row>
     <row r="416" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D416" s="30"/>
+      <c r="D416" s="25"/>
     </row>
     <row r="417" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D417" s="30"/>
+      <c r="D417" s="25"/>
     </row>
     <row r="418" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D418" s="30"/>
+      <c r="D418" s="25"/>
     </row>
     <row r="419" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D419" s="30"/>
+      <c r="D419" s="25"/>
     </row>
     <row r="420" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D420" s="30"/>
+      <c r="D420" s="25"/>
     </row>
     <row r="421" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D421" s="30"/>
+      <c r="D421" s="25"/>
     </row>
     <row r="422" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D422" s="30"/>
+      <c r="D422" s="25"/>
     </row>
     <row r="423" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D423" s="30"/>
+      <c r="D423" s="25"/>
     </row>
     <row r="424" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D424" s="30"/>
+      <c r="D424" s="25"/>
     </row>
     <row r="425" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D425" s="30"/>
+      <c r="D425" s="25"/>
     </row>
     <row r="426" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D426" s="30"/>
+      <c r="D426" s="25"/>
     </row>
     <row r="427" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D427" s="30"/>
+      <c r="D427" s="25"/>
     </row>
     <row r="428" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D428" s="30"/>
+      <c r="D428" s="25"/>
     </row>
     <row r="429" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D429" s="30"/>
+      <c r="D429" s="25"/>
     </row>
     <row r="430" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D430" s="30"/>
+      <c r="D430" s="25"/>
     </row>
     <row r="431" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D431" s="30"/>
+      <c r="D431" s="25"/>
     </row>
     <row r="432" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D432" s="30"/>
+      <c r="D432" s="25"/>
     </row>
     <row r="433" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D433" s="30"/>
+      <c r="D433" s="25"/>
     </row>
     <row r="434" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D434" s="30"/>
+      <c r="D434" s="25"/>
     </row>
     <row r="435" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D435" s="30"/>
+      <c r="D435" s="25"/>
     </row>
     <row r="436" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D436" s="30"/>
+      <c r="D436" s="25"/>
     </row>
     <row r="437" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D437" s="30"/>
+      <c r="D437" s="25"/>
     </row>
     <row r="438" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D438" s="30"/>
+      <c r="D438" s="25"/>
     </row>
     <row r="439" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D439" s="30"/>
+      <c r="D439" s="25"/>
     </row>
     <row r="440" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D440" s="30"/>
+      <c r="D440" s="25"/>
     </row>
     <row r="441" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D441" s="30"/>
+      <c r="D441" s="25"/>
     </row>
     <row r="442" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D442" s="30"/>
+      <c r="D442" s="25"/>
     </row>
     <row r="443" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D443" s="30"/>
+      <c r="D443" s="25"/>
     </row>
     <row r="444" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D444" s="30"/>
+      <c r="D444" s="25"/>
     </row>
     <row r="445" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D445" s="30"/>
+      <c r="D445" s="25"/>
     </row>
     <row r="446" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D446" s="30"/>
+      <c r="D446" s="25"/>
     </row>
     <row r="447" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D447" s="30"/>
+      <c r="D447" s="25"/>
     </row>
     <row r="448" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D448" s="30"/>
+      <c r="D448" s="25"/>
     </row>
     <row r="449" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D449" s="30"/>
+      <c r="D449" s="25"/>
     </row>
     <row r="450" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D450" s="30"/>
+      <c r="D450" s="25"/>
     </row>
     <row r="451" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D451" s="30"/>
+      <c r="D451" s="25"/>
     </row>
     <row r="452" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D452" s="30"/>
+      <c r="D452" s="25"/>
     </row>
     <row r="453" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D453" s="30"/>
+      <c r="D453" s="25"/>
     </row>
     <row r="454" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D454" s="30"/>
+      <c r="D454" s="25"/>
     </row>
     <row r="455" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D455" s="30"/>
+      <c r="D455" s="25"/>
     </row>
     <row r="456" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D456" s="30"/>
+      <c r="D456" s="25"/>
     </row>
     <row r="457" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D457" s="30"/>
+      <c r="D457" s="25"/>
     </row>
     <row r="458" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D458" s="30"/>
+      <c r="D458" s="25"/>
     </row>
     <row r="459" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D459" s="30"/>
+      <c r="D459" s="25"/>
     </row>
     <row r="460" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D460" s="30"/>
+      <c r="D460" s="25"/>
     </row>
     <row r="461" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D461" s="30"/>
+      <c r="D461" s="25"/>
     </row>
     <row r="462" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D462" s="30"/>
+      <c r="D462" s="25"/>
     </row>
     <row r="463" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D463" s="30"/>
+      <c r="D463" s="25"/>
     </row>
     <row r="464" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D464" s="30"/>
+      <c r="D464" s="25"/>
     </row>
     <row r="465" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D465" s="30"/>
+      <c r="D465" s="25"/>
     </row>
     <row r="466" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D466" s="30"/>
+      <c r="D466" s="25"/>
     </row>
     <row r="467" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D467" s="30"/>
+      <c r="D467" s="25"/>
     </row>
     <row r="468" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D468" s="30"/>
+      <c r="D468" s="25"/>
     </row>
     <row r="469" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D469" s="30"/>
+      <c r="D469" s="25"/>
     </row>
     <row r="470" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D470" s="30"/>
+      <c r="D470" s="25"/>
     </row>
     <row r="471" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D471" s="30"/>
+      <c r="D471" s="25"/>
     </row>
     <row r="472" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D472" s="30"/>
+      <c r="D472" s="25"/>
     </row>
     <row r="473" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D473" s="30"/>
+      <c r="D473" s="25"/>
     </row>
     <row r="474" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D474" s="30"/>
+      <c r="D474" s="25"/>
     </row>
     <row r="475" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D475" s="30"/>
+      <c r="D475" s="25"/>
     </row>
     <row r="476" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D476" s="30"/>
+      <c r="D476" s="25"/>
     </row>
     <row r="477" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D477" s="30"/>
+      <c r="D477" s="25"/>
     </row>
     <row r="478" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D478" s="30"/>
+      <c r="D478" s="25"/>
     </row>
     <row r="479" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D479" s="30"/>
+      <c r="D479" s="25"/>
     </row>
     <row r="480" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D480" s="30"/>
+      <c r="D480" s="25"/>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D481" s="30"/>
+      <c r="D481" s="25"/>
     </row>
     <row r="482" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D482" s="30"/>
+      <c r="D482" s="25"/>
     </row>
     <row r="483" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D483" s="30"/>
+      <c r="D483" s="25"/>
     </row>
     <row r="484" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D484" s="30"/>
+      <c r="D484" s="25"/>
     </row>
     <row r="485" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D485" s="30"/>
+      <c r="D485" s="25"/>
     </row>
     <row r="486" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D486" s="30"/>
+      <c r="D486" s="25"/>
     </row>
     <row r="487" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D487" s="30"/>
+      <c r="D487" s="25"/>
     </row>
     <row r="488" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D488" s="30"/>
+      <c r="D488" s="25"/>
     </row>
     <row r="489" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D489" s="30"/>
+      <c r="D489" s="25"/>
     </row>
     <row r="490" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D490" s="30"/>
+      <c r="D490" s="25"/>
     </row>
     <row r="491" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D491" s="30"/>
+      <c r="D491" s="25"/>
     </row>
     <row r="492" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D492" s="30"/>
+      <c r="D492" s="25"/>
     </row>
     <row r="493" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D493" s="30"/>
+      <c r="D493" s="25"/>
     </row>
     <row r="494" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D494" s="30"/>
+      <c r="D494" s="25"/>
     </row>
     <row r="495" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D495" s="30"/>
+      <c r="D495" s="25"/>
     </row>
     <row r="496" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D496" s="30"/>
+      <c r="D496" s="25"/>
     </row>
     <row r="497" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D497" s="30"/>
+      <c r="D497" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/eVaSys.Server/Assets/Templates/EtatMensuelReception.xlsx
+++ b/eVaSys.Server/Assets/Templates/EtatMensuelReception.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\Repos\eVaSys\eVaSys.Server\Assets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3912D16C-4FAA-4F75-A1F8-26AAC601FD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B9AFED-CBC6-4754-926D-23F7B4F9F261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12288" yWindow="4116" windowWidth="25884" windowHeight="19248" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6288" yWindow="3924" windowWidth="20736" windowHeight="18912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etat" sheetId="4" r:id="rId1"/>
     <sheet name="Répartition" sheetId="3" r:id="rId2"/>
     <sheet name="Produits" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>RS</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>CPVille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A l'attention de </t>
   </si>
   <si>
     <t xml:space="preserve">N° du contrat : </t>
@@ -397,7 +394,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>185069</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -782,7 +779,7 @@
   </sheetPr>
   <dimension ref="A4:E2372"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -796,20 +793,20 @@
   <sheetData>
     <row r="4" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="4:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:5" ht="21" hidden="1" x14ac:dyDescent="0.4">
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.25">
@@ -838,24 +835,22 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+    <row r="14" spans="4:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="4:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -865,19 +860,19 @@
     <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E23" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7962,20 +7957,20 @@
   <sheetData>
     <row r="4" spans="4:4" ht="21" x14ac:dyDescent="0.4">
       <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="4:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:4" ht="21" hidden="1" x14ac:dyDescent="0.4">
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.25">
@@ -7993,33 +7988,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="14" spans="4:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="4:4" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="32"/>
       <c r="E21" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -9193,87 +9186,116 @@
     </row>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B235:D235"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="B223:D223"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
     <mergeCell ref="B121:D121"/>
     <mergeCell ref="B122:D122"/>
     <mergeCell ref="B123:D123"/>
@@ -9298,116 +9320,87 @@
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B189:D189"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="B221:D221"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="B223:D223"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B233:D233"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="B235:D235"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9426,7 +9419,7 @@
   </sheetPr>
   <dimension ref="A4:F497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9440,28 +9433,28 @@
   <sheetData>
     <row r="4" spans="4:6" ht="21" x14ac:dyDescent="0.4">
       <c r="D4" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="4:6" ht="21" x14ac:dyDescent="0.4">
       <c r="D5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="4:6" ht="21" x14ac:dyDescent="0.4">
       <c r="D6" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
@@ -9489,24 +9482,22 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="8" t="s">
+    <row r="14" spans="4:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="4:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="21" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -9517,22 +9508,22 @@
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D23" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
